--- a/Compass.Wpf/bin/Release/net6.0-windows/CeilingLabel.xlsx
+++ b/Compass.Wpf/bin/Release/net6.0-windows/CeilingLabel.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\CSharp\repos\Compass.Wasm\Compass.Wpf\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7468244C-0457-49E0-99BF-2182E25031D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2F05152-3268-4E38-8438-7349C0439600}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -123,19 +123,19 @@
   <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -423,7 +423,7 @@
   <dimension ref="A1:A7"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="130" zoomScaleNormal="100" zoomScaleSheetLayoutView="130" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -437,32 +437,32 @@
       </c>
     </row>
     <row r="2" spans="1:1" ht="31.5" x14ac:dyDescent="0.2">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:1" ht="30" x14ac:dyDescent="0.2">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:1" ht="30" x14ac:dyDescent="0.2">
-      <c r="A4" s="5" t="s">
+      <c r="A4" s="4" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:1" ht="30" x14ac:dyDescent="0.2">
-      <c r="A5" s="5" t="s">
+      <c r="A5" s="4" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:1" ht="30" x14ac:dyDescent="0.2">
-      <c r="A6" s="5" t="s">
+      <c r="A6" s="4" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:1" ht="33.75" x14ac:dyDescent="0.2">
-      <c r="A7" s="2" t="s">
+      <c r="A7" s="5" t="s">
         <v>6</v>
       </c>
     </row>
